--- a/data/Colchane.xlsx
+++ b/data/Colchane.xlsx
@@ -487,7 +487,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Compañía General de Electricidad S.A.</t>
+          <t>CGE TRANSMISION S.A.</t>
         </is>
       </c>
       <c r="F3" t="n">
